--- a/2014/Preise/Dschungelbar.xlsx
+++ b/2014/Preise/Dschungelbar.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="26">
   <si>
     <t>Cola Bacardi</t>
   </si>
@@ -93,10 +93,19 @@
     <t>Tequila groß</t>
   </si>
   <si>
-    <t>Klopfer</t>
-  </si>
-  <si>
     <t>(Nuss, Marille, Lederbirn, Weichsel)</t>
+  </si>
+  <si>
+    <t>(Nuss [H], Marille, Lederbirn, Weichsel)</t>
+  </si>
+  <si>
+    <t>Sekt Bull [O]</t>
+  </si>
+  <si>
+    <t>Sekt (Orange) [O]</t>
+  </si>
+  <si>
+    <t>Kleiner Feigling</t>
   </si>
 </sst>
 </file>
@@ -222,7 +231,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -231,11 +240,9 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -250,14 +257,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -295,9 +305,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -332,7 +342,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -367,7 +377,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -544,21 +554,21 @@
   <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" customWidth="1"/>
+    <col min="1" max="1" width="21.85546875" customWidth="1"/>
     <col min="2" max="2" width="6.7109375" customWidth="1"/>
-    <col min="3" max="3" width="6.42578125" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="6.7109375" style="9" customWidth="1"/>
-    <col min="6" max="6" width="6.42578125" customWidth="1"/>
-    <col min="7" max="7" width="20.28515625" customWidth="1"/>
+    <col min="3" max="3" width="4.5703125" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" style="8" customWidth="1"/>
+    <col min="6" max="6" width="4.5703125" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" customWidth="1"/>
     <col min="8" max="8" width="6.7109375" customWidth="1"/>
-    <col min="9" max="9" width="6.28515625" customWidth="1"/>
-    <col min="10" max="10" width="20.28515625" customWidth="1"/>
+    <col min="9" max="9" width="4.5703125" customWidth="1"/>
+    <col min="10" max="10" width="21.85546875" customWidth="1"/>
     <col min="11" max="11" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -567,7 +577,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="5">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>12</v>
@@ -581,7 +591,6 @@
       <c r="H1" s="5">
         <v>2.5</v>
       </c>
-      <c r="I1" s="1"/>
       <c r="J1" s="2" t="s">
         <v>12</v>
       </c>
@@ -597,7 +606,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="6">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>13</v>
@@ -611,7 +620,6 @@
       <c r="H2" s="6">
         <v>3</v>
       </c>
-      <c r="I2" s="1"/>
       <c r="J2" s="3" t="s">
         <v>13</v>
       </c>
@@ -627,7 +635,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="6">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>3</v>
@@ -641,7 +649,6 @@
       <c r="H3" s="6">
         <v>3</v>
       </c>
-      <c r="I3" s="1"/>
       <c r="J3" s="3" t="s">
         <v>3</v>
       </c>
@@ -657,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="6">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>0</v>
@@ -671,7 +678,6 @@
       <c r="H4" s="6">
         <v>3</v>
       </c>
-      <c r="I4" s="1"/>
       <c r="J4" s="3" t="s">
         <v>0</v>
       </c>
@@ -689,7 +695,6 @@
       <c r="E5" s="6"/>
       <c r="G5" s="3"/>
       <c r="H5" s="6"/>
-      <c r="I5" s="1"/>
       <c r="J5" s="3"/>
       <c r="K5" s="6"/>
       <c r="L5" s="1"/>
@@ -701,7 +706,7 @@
         <v>16</v>
       </c>
       <c r="B6" s="6">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>16</v>
@@ -715,7 +720,6 @@
       <c r="H6" s="6">
         <v>3</v>
       </c>
-      <c r="I6" s="1"/>
       <c r="J6" s="3" t="s">
         <v>16</v>
       </c>
@@ -731,7 +735,7 @@
         <v>17</v>
       </c>
       <c r="B7" s="6">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>17</v>
@@ -745,7 +749,6 @@
       <c r="H7" s="6">
         <v>3</v>
       </c>
-      <c r="I7" s="1"/>
       <c r="J7" s="3" t="s">
         <v>17</v>
       </c>
@@ -761,7 +764,7 @@
         <v>18</v>
       </c>
       <c r="B8" s="6">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>18</v>
@@ -775,7 +778,6 @@
       <c r="H8" s="6">
         <v>3</v>
       </c>
-      <c r="I8" s="1"/>
       <c r="J8" s="3" t="s">
         <v>18</v>
       </c>
@@ -793,7 +795,6 @@
       <c r="E9" s="6"/>
       <c r="G9" s="3"/>
       <c r="H9" s="6"/>
-      <c r="I9" s="1"/>
       <c r="J9" s="3"/>
       <c r="K9" s="6"/>
       <c r="L9" s="1"/>
@@ -805,7 +806,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="6">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>10</v>
@@ -819,7 +820,6 @@
       <c r="H10" s="6">
         <v>3</v>
       </c>
-      <c r="I10" s="1"/>
       <c r="J10" s="3" t="s">
         <v>10</v>
       </c>
@@ -835,7 +835,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="6">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>11</v>
@@ -849,7 +849,6 @@
       <c r="H11" s="6">
         <v>3</v>
       </c>
-      <c r="I11" s="1"/>
       <c r="J11" s="3" t="s">
         <v>11</v>
       </c>
@@ -865,7 +864,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="6">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>4</v>
@@ -879,7 +878,6 @@
       <c r="H12" s="6">
         <v>3</v>
       </c>
-      <c r="I12" s="1"/>
       <c r="J12" s="3" t="s">
         <v>4</v>
       </c>
@@ -895,7 +893,7 @@
         <v>2</v>
       </c>
       <c r="B13" s="6">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>2</v>
@@ -909,7 +907,6 @@
       <c r="H13" s="6">
         <v>3.5</v>
       </c>
-      <c r="I13" s="1"/>
       <c r="J13" s="3" t="s">
         <v>2</v>
       </c>
@@ -927,7 +924,6 @@
       <c r="E14" s="6"/>
       <c r="G14" s="3"/>
       <c r="H14" s="6"/>
-      <c r="I14" s="1"/>
       <c r="J14" s="3"/>
       <c r="K14" s="6"/>
       <c r="L14" s="1"/>
@@ -936,7 +932,7 @@
     </row>
     <row r="15" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B15" s="6">
         <v>3</v>
@@ -953,7 +949,6 @@
       <c r="H15" s="6">
         <v>3</v>
       </c>
-      <c r="I15" s="1"/>
       <c r="J15" s="3" t="s">
         <v>5</v>
       </c>
@@ -966,7 +961,7 @@
     </row>
     <row r="16" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="B16" s="6">
         <v>2.5</v>
@@ -983,7 +978,6 @@
       <c r="H16" s="6">
         <v>2.5</v>
       </c>
-      <c r="I16" s="1"/>
       <c r="J16" s="3" t="s">
         <v>8</v>
       </c>
@@ -1001,7 +995,6 @@
       <c r="E17" s="6"/>
       <c r="G17" s="3"/>
       <c r="H17" s="6"/>
-      <c r="I17" s="1"/>
       <c r="J17" s="3"/>
       <c r="K17" s="6"/>
       <c r="L17" s="1"/>
@@ -1013,7 +1006,7 @@
         <v>14</v>
       </c>
       <c r="B18" s="6">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>14</v>
@@ -1027,7 +1020,6 @@
       <c r="H18" s="6">
         <v>3</v>
       </c>
-      <c r="I18" s="1"/>
       <c r="J18" s="3" t="s">
         <v>14</v>
       </c>
@@ -1039,25 +1031,25 @@
       <c r="N18" s="1"/>
     </row>
     <row r="19" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="14" t="s">
+      <c r="B19" s="9"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="14" t="s">
+      <c r="E19" s="9"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H19" s="10"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="14" t="s">
+      <c r="H19" s="9"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="K19" s="10"/>
+      <c r="K19" s="9"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
@@ -1069,7 +1061,6 @@
       <c r="E20" s="6"/>
       <c r="G20" s="3"/>
       <c r="H20" s="6"/>
-      <c r="I20" s="1"/>
       <c r="J20" s="3"/>
       <c r="K20" s="6"/>
       <c r="L20" s="1"/>
@@ -1095,7 +1086,6 @@
       <c r="H21" s="6">
         <v>2</v>
       </c>
-      <c r="I21" s="1"/>
       <c r="J21" s="3" t="s">
         <v>1</v>
       </c>
@@ -1108,26 +1098,25 @@
     </row>
     <row r="22" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B22" s="6">
         <v>2</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E22" s="6">
         <v>2</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H22" s="6">
         <v>2</v>
       </c>
-      <c r="I22" s="1"/>
       <c r="J22" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="K22" s="6">
         <v>2</v>
@@ -1155,7 +1144,6 @@
       <c r="H23" s="6">
         <v>2</v>
       </c>
-      <c r="I23" s="1"/>
       <c r="J23" s="3" t="s">
         <v>19</v>
       </c>
@@ -1185,7 +1173,6 @@
       <c r="H24" s="6">
         <v>3</v>
       </c>
-      <c r="I24" s="1"/>
       <c r="J24" s="3" t="s">
         <v>20</v>
       </c>
@@ -1249,31 +1236,31 @@
       </c>
     </row>
     <row r="27" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="12" t="s">
         <v>22</v>
       </c>
       <c r="B27" s="6"/>
-      <c r="D27" s="14" t="s">
-        <v>22</v>
+      <c r="D27" s="12" t="s">
+        <v>21</v>
       </c>
       <c r="E27" s="6"/>
-      <c r="G27" s="14" t="s">
-        <v>22</v>
+      <c r="G27" s="12" t="s">
+        <v>21</v>
       </c>
       <c r="H27" s="6"/>
-      <c r="J27" s="14" t="s">
-        <v>22</v>
+      <c r="J27" s="12" t="s">
+        <v>21</v>
       </c>
       <c r="K27" s="6"/>
     </row>
     <row r="28" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="13"/>
+      <c r="A28" s="11"/>
       <c r="B28" s="6"/>
-      <c r="D28" s="13"/>
+      <c r="D28" s="11"/>
       <c r="E28" s="6"/>
-      <c r="G28" s="13"/>
+      <c r="G28" s="11"/>
       <c r="H28" s="6"/>
-      <c r="J28" s="13"/>
+      <c r="J28" s="11"/>
       <c r="K28" s="6"/>
     </row>
     <row r="29" spans="1:14" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -1305,7 +1292,7 @@
     <row r="30" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
